--- a/FORMATOS PRACTICAS/10 Rubrica de sustentacion practicas laborales.xlsx
+++ b/FORMATOS PRACTICAS/10 Rubrica de sustentacion practicas laborales.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\OneDrive - Universidad Tecnica del Norte\Escritorio\ISTAE\IIPA23\OCS\OCS-2023-SO-01-R001\DOCUMENTO PARA OCS\2 PRACTICAS LABORALES\2. ANEXOS NORMATIVA LABORAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Sistema_integral_10Agosto\FORMATOS PRACTICAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20199D2F-EC29-49CD-BCDB-836692562B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -213,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1161,22 +1160,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -1185,14 +1184,14 @@
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1200,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1209,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -1219,7 +1218,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -1228,7 +1227,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1236,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1247,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1257,7 @@
       </c>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1268,7 @@
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>19</v>
       </c>
@@ -1278,12 +1277,12 @@
       <c r="D11" s="47"/>
       <c r="E11" s="48"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="49" t="s">
         <v>20</v>
@@ -1292,7 +1291,7 @@
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="53" t="s">
         <v>1</v>
@@ -1305,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
       <c r="C15" s="26" t="s">
@@ -1316,7 +1315,7 @@
       </c>
       <c r="E15" s="55"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>1</v>
       </c>
@@ -1329,7 +1328,7 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>2</v>
       </c>
@@ -1342,7 +1341,7 @@
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>3</v>
       </c>
@@ -1355,7 +1354,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>4</v>
       </c>
@@ -1368,7 +1367,7 @@
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>5</v>
       </c>
@@ -1381,7 +1380,7 @@
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="31" t="s">
         <v>8</v>
@@ -1393,14 +1392,14 @@
       <c r="D21" s="32"/>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="34"/>
     </row>
-    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>9</v>
       </c>
@@ -1409,89 +1408,89 @@
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
       <c r="E24" s="59"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
       <c r="E25" s="62"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="62"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="62"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
       <c r="E29" s="62"/>
     </row>
-    <row r="30" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
       <c r="E30" s="62"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="61"/>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
       <c r="E32" s="62"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
       <c r="E33" s="62"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
       <c r="E34" s="65"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="38" t="s">
         <v>10</v>
@@ -1502,28 +1501,28 @@
       </c>
       <c r="E36" s="17"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" t="s">
         <v>22</v>
@@ -1534,7 +1533,7 @@
       </c>
       <c r="E41" s="41"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="16" t="s">
         <v>36</v>
@@ -1545,7 +1544,7 @@
       </c>
       <c r="E42" s="41"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="40" t="s">
         <v>37</v>
@@ -1556,7 +1555,7 @@
       </c>
       <c r="E43" s="66"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1564,7 @@
       </c>
       <c r="E48" s="41"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1573,7 @@
       </c>
       <c r="E49" s="41"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
         <v>23</v>
       </c>
